--- a/CarEvaluation1.xlsx
+++ b/CarEvaluation1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DH-CT\CT312-KhaiKhoanDuLieu\DoAn\MayHoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12100" uniqueCount="26">
   <si>
     <t>vhigh</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Med</t>
-  </si>
-  <si>
-    <t>High</t>
   </si>
   <si>
     <t>Buying</t>
@@ -535,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1438" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1741" sqref="A1741"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,25 +543,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -4074,7 +4071,7 @@
         <v>7</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>4</v>
@@ -4131,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>10</v>
